--- a/JVM调优/JVM参数.xlsx
+++ b/JVM调优/JVM参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidongyue/codes/arthur-dy-lee-note/JVM调优/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidongyue/codes/GitHub/arthur-dy-lee-note/JVM调优/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A3C62-1342-0245-AB54-18DA2C5CB2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F884F0-F043-9E4A-8A30-3B60D9DFFB01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="460" windowWidth="36480" windowHeight="27440" xr2:uid="{6E1AF280-301C-F141-950F-FD7AE1390924}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{6E1AF280-301C-F141-950F-FD7AE1390924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="194">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,26 +768,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DK1.6之后，默认开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年代是否允许分配担保失败，，即老年代的剩余最大连续空间不足以引用新生代的整个Eden和Survivor区的所有存活对象的极端情况（以此判断是否需要对老年代进行以此FullGC）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1为9，CMS为99。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-XX:+HandlePromotionFailure</t>
-  </si>
-  <si>
-    <t>DK1.6之后，默认开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年代是否允许分配担保失败，，即老年代的剩余最大连续空间不足以引用新生代的整个Eden和Survivor区的所有存活对象的极端情况（以此判断是否需要对老年代进行以此FullGC）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1为9，CMS为99。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于64位JVM来说，元空间的默认初始大小是20.75MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,12 +835,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF4F4F4F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -845,8 +842,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +867,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -920,23 +937,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF1EB6B-455E-564C-89C5-D7FBAB1B4DC9}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1269,10 +1289,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1307,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1302,12 +1322,12 @@
       <c r="E2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1318,12 +1338,12 @@
       <c r="E3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1332,10 +1352,10 @@
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
         <v>20</v>
@@ -1347,7 +1367,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="34">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
         <v>22</v>
@@ -1359,7 +1379,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -1371,7 +1391,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>24</v>
@@ -1383,9 +1403,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="51">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="6"/>
@@ -1395,11 +1415,11 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="34">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1411,9 +1431,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="17">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="6"/>
@@ -1423,7 +1443,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="11"/>
       <c r="C12" s="6" t="s">
         <v>33</v>
@@ -1435,7 +1455,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="34">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -1447,7 +1467,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
         <v>36</v>
@@ -1459,7 +1479,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
         <v>38</v>
@@ -1471,7 +1491,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="17">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
         <v>40</v>
@@ -1483,9 +1503,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="6"/>
@@ -1495,9 +1515,9 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="34">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="6"/>
@@ -1507,7 +1527,7 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="17">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
         <v>45</v>
@@ -1519,7 +1539,7 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="85">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
         <v>88</v>
@@ -1531,7 +1551,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
         <v>47</v>
@@ -1543,7 +1563,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
@@ -1555,7 +1575,7 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
         <v>51</v>
@@ -1567,7 +1587,7 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="17">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
         <v>52</v>
@@ -1579,13 +1599,13 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="51">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>141</v>
@@ -1593,9 +1613,9 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="34">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="6"/>
@@ -1605,9 +1625,9 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="6"/>
@@ -1617,7 +1637,7 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="34">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="11"/>
       <c r="C28" s="6" t="s">
         <v>102</v>
@@ -1629,7 +1649,7 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1637,7 +1657,7 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1645,7 +1665,7 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="11" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1679,7 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="17">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="11"/>
       <c r="C32" s="6" t="s">
         <v>56</v>
@@ -1671,7 +1691,7 @@
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="17">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="11"/>
       <c r="C33" s="6" t="s">
         <v>58</v>
@@ -1683,7 +1703,7 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="6" t="s">
         <v>60</v>
@@ -1695,7 +1715,7 @@
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="11"/>
       <c r="C35" s="6" t="s">
         <v>62</v>
@@ -1707,7 +1727,7 @@
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="11" t="s">
         <v>107</v>
       </c>
@@ -1721,7 +1741,7 @@
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="34">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="11"/>
       <c r="C37" s="6" t="s">
         <v>66</v>
@@ -1733,7 +1753,7 @@
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="34">
-      <c r="A38" s="10"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="11"/>
       <c r="C38" s="6" t="s">
         <v>104</v>
@@ -1745,7 +1765,7 @@
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="17">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="6" t="s">
         <v>68</v>
@@ -1757,7 +1777,7 @@
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="17">
-      <c r="A40" s="10"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="6" t="s">
         <v>105</v>
@@ -1769,7 +1789,7 @@
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="17">
-      <c r="A41" s="10"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
         <v>60</v>
@@ -1781,7 +1801,7 @@
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="10"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="6" t="s">
         <v>121</v>
@@ -1793,7 +1813,7 @@
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="17">
-      <c r="A43" s="10"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="11" t="s">
         <v>95</v>
       </c>
@@ -1807,7 +1827,7 @@
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="17">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="11"/>
       <c r="C44" s="6" t="s">
         <v>98</v>
@@ -1819,7 +1839,7 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="17">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="11"/>
       <c r="C45" s="6" t="s">
         <v>109</v>
@@ -1831,7 +1851,7 @@
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="51">
-      <c r="A46" s="10"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="11"/>
       <c r="C46" s="6" t="s">
         <v>111</v>
@@ -1843,7 +1863,7 @@
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="51">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="6" t="s">
         <v>155</v>
@@ -1857,25 +1877,25 @@
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1">
-      <c r="A48" s="10" t="s">
-        <v>189</v>
+      <c r="A48" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17">
-      <c r="A49" s="10"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="11"/>
       <c r="C49" s="6" t="s">
         <v>12</v>
@@ -1884,10 +1904,10 @@
       <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="17">
-      <c r="A50" s="10"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="11"/>
       <c r="C50" s="6" t="s">
         <v>13</v>
@@ -1896,12 +1916,12 @@
       <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="34">
-      <c r="A51" s="10"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -1913,9 +1933,9 @@
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="17">
-      <c r="A52" s="10"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -1927,7 +1947,7 @@
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="17">
-      <c r="A53" s="10"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="11"/>
       <c r="C53" s="6" t="s">
         <v>72</v>
@@ -1939,7 +1959,7 @@
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="85">
-      <c r="A54" s="10"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="11"/>
       <c r="C54" s="6" t="s">
         <v>74</v>
@@ -1951,7 +1971,7 @@
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="17">
-      <c r="A55" s="10"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="11"/>
       <c r="C55" s="6" t="s">
         <v>75</v>
@@ -1963,9 +1983,9 @@
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="34">
-      <c r="A56" s="10"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -1976,8 +1996,8 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="85">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:6" ht="80" customHeight="1">
+      <c r="A57" s="12"/>
       <c r="B57" s="11"/>
       <c r="C57" s="6" t="s">
         <v>74</v>
@@ -1988,8 +2008,8 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="17" customHeight="1">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:6" ht="51" customHeight="1">
+      <c r="A58" s="12"/>
       <c r="B58" s="11"/>
       <c r="C58" s="6" t="s">
         <v>143</v>
@@ -2003,7 +2023,7 @@
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="34">
-      <c r="A59" s="10"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="11" t="s">
         <v>135</v>
       </c>
@@ -2019,25 +2039,25 @@
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="51">
-      <c r="A60" s="10"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="17">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="6"/>
@@ -2046,22 +2066,26 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="17">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:6" ht="34">
+      <c r="A62" s="12"/>
       <c r="B62" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="E62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="17">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="11"/>
       <c r="C63" s="6" t="s">
         <v>80</v>
@@ -2073,7 +2097,7 @@
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="34">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -2091,7 +2115,7 @@
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" ht="17">
-      <c r="A65" s="10"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="11"/>
       <c r="C65" s="6" t="s">
         <v>123</v>
@@ -2103,7 +2127,7 @@
       <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" ht="51">
-      <c r="A66" s="10"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="11"/>
       <c r="C66" s="6" t="s">
         <v>130</v>
@@ -2115,7 +2139,7 @@
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="68">
-      <c r="A67" s="10"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="11"/>
       <c r="C67" s="6" t="s">
         <v>131</v>
@@ -2127,7 +2151,7 @@
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" ht="34">
-      <c r="A68" s="10"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="11"/>
       <c r="C68" s="6" t="s">
         <v>175</v>
@@ -2141,7 +2165,7 @@
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" ht="34">
-      <c r="A69" s="10"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="11"/>
       <c r="C69" s="6" t="s">
         <v>176</v>
@@ -2155,13 +2179,13 @@
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" ht="34">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D70" s="6"/>
@@ -2171,7 +2195,7 @@
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" ht="17">
-      <c r="A71" s="10"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="11"/>
       <c r="C71" s="6" t="s">
         <v>139</v>
@@ -2185,7 +2209,7 @@
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" ht="85">
-      <c r="A72" s="10"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="11"/>
       <c r="C72" s="6" t="s">
         <v>140</v>
@@ -2199,7 +2223,7 @@
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" ht="34">
-      <c r="A73" s="10"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="11"/>
       <c r="C73" s="6" t="s">
         <v>139</v>
@@ -2211,7 +2235,7 @@
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" ht="51">
-      <c r="A74" s="10"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="11"/>
       <c r="C74" s="6" t="s">
         <v>177</v>
@@ -2225,7 +2249,7 @@
       <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" ht="17">
-      <c r="A75" s="10"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="11"/>
       <c r="C75" s="6" t="s">
         <v>178</v>
@@ -2239,7 +2263,7 @@
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" ht="17">
-      <c r="A76" s="10"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="11"/>
       <c r="C76" s="6" t="s">
         <v>179</v>
@@ -2253,13 +2277,13 @@
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" ht="17">
-      <c r="A77" s="10"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="11"/>
       <c r="C77" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>180</v>
@@ -2267,7 +2291,7 @@
       <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" ht="17">
-      <c r="A78" s="10"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="11"/>
       <c r="C78" s="6" t="s">
         <v>181</v>
@@ -2281,7 +2305,7 @@
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" ht="17">
-      <c r="A79" s="10"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="11"/>
       <c r="C79" s="6" t="s">
         <v>183</v>
@@ -2293,7 +2317,7 @@
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" ht="34">
-      <c r="A80" s="10"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="11"/>
       <c r="C80" s="6" t="s">
         <v>174</v>
@@ -2323,13 +2347,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B42"/>
     <mergeCell ref="A70:A80"/>
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="A2:A47"/>
@@ -2340,6 +2357,13 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A48:A63"/>
     <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JVM调优/JVM参数.xlsx
+++ b/JVM调优/JVM参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidongyue/codes/GitHub/arthur-dy-lee-note/JVM调优/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F884F0-F043-9E4A-8A30-3B60D9DFFB01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F63030-EE9D-7D41-8426-3B6B45C45C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{6E1AF280-301C-F141-950F-FD7AE1390924}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36620" windowHeight="27200" xr2:uid="{6E1AF280-301C-F141-950F-FD7AE1390924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置元数据空间初始大小（取代-XX:PermSize）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-XX:MaxMetaspaceSize=128M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +793,10 @@
   </si>
   <si>
     <t>20M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置元数据空间初始大小（取代-XX:PermSize），对于64位JVM来说，元空间的默认初始大小是20.75MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -906,13 +906,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,23 +977,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF1EB6B-455E-564C-89C5-D7FBAB1B4DC9}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1289,15 +1335,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24">
-      <c r="A1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -1307,56 +1353,56 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
-        <v>83</v>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1367,8 +1413,8 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="34">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1379,8 +1425,8 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1437,8 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1403,37 +1449,37 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="51">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="34">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="17">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="6"/>
@@ -1443,8 +1489,8 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
@@ -1455,20 +1501,20 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="34">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
@@ -1479,8 +1525,8 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1491,8 +1537,8 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="17">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1503,9 +1549,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="6"/>
@@ -1515,20 +1561,20 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="34">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="17">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
@@ -1539,20 +1585,20 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="85">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
@@ -1563,8 +1609,8 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
@@ -1575,20 +1621,20 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="17">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
@@ -1599,74 +1645,74 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="51">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="34">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13" t="s">
-        <v>89</v>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="34">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1679,8 +1725,8 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="17">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="6" t="s">
         <v>56</v>
       </c>
@@ -1691,8 +1737,8 @@
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="17">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="6" t="s">
         <v>58</v>
       </c>
@@ -1703,8 +1749,8 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="12"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="6" t="s">
         <v>60</v>
       </c>
@@ -1715,8 +1761,8 @@
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="6" t="s">
         <v>62</v>
       </c>
@@ -1727,9 +1773,9 @@
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11" t="s">
-        <v>107</v>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>64</v>
@@ -1741,8 +1787,8 @@
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="34">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="6" t="s">
         <v>66</v>
       </c>
@@ -1753,20 +1799,20 @@
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="34">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="17">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="6" t="s">
         <v>68</v>
       </c>
@@ -1777,178 +1823,178 @@
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="17">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="17">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="17">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="17">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="17">
-      <c r="A44" s="12"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="17">
-      <c r="A45" s="12"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="51">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="51">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="51">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17">
-      <c r="A49" s="12"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" ht="17">
-      <c r="A50" s="12"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="34">
-      <c r="A51" s="12"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="17">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" ht="17">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="E52" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="17">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="6" t="s">
         <v>72</v>
       </c>
@@ -1959,20 +2005,20 @@
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="85">
-      <c r="A54" s="12"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="17">
-      <c r="A55" s="12"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="6" t="s">
         <v>75</v>
       </c>
@@ -1983,350 +2029,350 @@
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="34">
-      <c r="A56" s="12"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="80" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" ht="51" customHeight="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="34">
-      <c r="A59" s="12"/>
-      <c r="B59" s="11" t="s">
-        <v>135</v>
+      <c r="A59" s="11"/>
+      <c r="B59" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="51">
-      <c r="A60" s="12"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="17">
-      <c r="A61" s="12"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>85</v>
+        <v>114</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="34">
-      <c r="A62" s="12"/>
-      <c r="B62" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17">
-      <c r="A63" s="12"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="34">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="D64" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" ht="17">
-      <c r="A65" s="12"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" ht="51">
-      <c r="A66" s="12"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="68">
-      <c r="A67" s="12"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" ht="34">
-      <c r="A68" s="12"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="34">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" ht="34">
-      <c r="A69" s="12"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" ht="34">
-      <c r="A70" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>125</v>
+      <c r="A70" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" ht="17">
-      <c r="A71" s="12"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" ht="85">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E71" s="6" t="s">
+      <c r="D72" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" ht="34">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" ht="85">
-      <c r="A72" s="12"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" ht="34">
-      <c r="A73" s="12"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" ht="51">
-      <c r="A74" s="12"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D74" s="6">
         <v>0.05</v>
       </c>
       <c r="E74" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="17">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" ht="17">
-      <c r="A75" s="12"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="6" t="s">
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" ht="17">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D76" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" ht="17">
-      <c r="A76" s="12"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="6" t="s">
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" ht="17">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" ht="17">
-      <c r="A77" s="12"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="6" t="s">
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" ht="17">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" ht="17">
-      <c r="A78" s="12"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" ht="17">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" ht="17">
-      <c r="A79" s="12"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" ht="34">
-      <c r="A80" s="12"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="F80" s="7"/>
     </row>
@@ -2346,7 +2392,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D48:D50"/>
     <mergeCell ref="A70:A80"/>
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="A2:A47"/>
@@ -2357,13 +2411,6 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A48:A63"/>
     <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
